--- a/sip/templates/pivot-template.xlsx
+++ b/sip/templates/pivot-template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\gestion\sip\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcelo\git\sip\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="11" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,9 +31,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>nuevagerencia</t>
+  </si>
+  <si>
+    <t>monto</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Suma de monto</t>
   </si>
   <si>
     <t>nuevodepartamento</t>
@@ -48,31 +60,10 @@
     <t>tipo</t>
   </si>
   <si>
-    <t>monto</t>
-  </si>
-  <si>
-    <t>area1</t>
-  </si>
-  <si>
-    <t>area12</t>
-  </si>
-  <si>
-    <t>Etiquetas de fila</t>
-  </si>
-  <si>
-    <t>Total general</t>
-  </si>
-  <si>
-    <t>Suma de monto</t>
+    <t>asdf</t>
   </si>
   <si>
     <t>Etiquetas de columna</t>
-  </si>
-  <si>
-    <t>dsfa</t>
-  </si>
-  <si>
-    <t>dsfds</t>
   </si>
 </sst>
 </file>
@@ -150,6 +141,37 @@
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -194,11 +216,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Pivot!$B$1:$B$2</c:f>
+              <c:f>Pivot!$B$3:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dsfa</c:v>
+                  <c:v>asdf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -215,77 +237,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Pivot!$A$3:$A$5</c:f>
+              <c:f>Pivot!$A$5:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>area1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>area12</c:v>
+                  <c:v>asdf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot!$B$3:$B$5</c:f>
+              <c:f>Pivot!$B$5:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="1">
-                  <c:v>5543</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Pivot!$C$1:$C$2</c:f>
-              <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dsfds</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Pivot!$A$3:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>area1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>area12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Pivot!$C$3:$C$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>123213</c:v>
+                  <c:v>691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -301,11 +269,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1517546016"/>
-        <c:axId val="-1517550912"/>
+        <c:axId val="1829796240"/>
+        <c:axId val="1829796784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1517546016"/>
+        <c:axId val="1829796240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -345,10 +313,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1517550912"/>
+        <c:crossAx val="1829796784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -356,7 +324,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1517550912"/>
+        <c:axId val="1829796784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -404,10 +372,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1517546016"/>
+        <c:crossAx val="1829796240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -447,7 +415,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CL"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -477,7 +445,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CL"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1046,16 +1014,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1078,19 +1046,25 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="zrismart" refreshedDate="42647.569972916666" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="2">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="marcelo" refreshedDate="42648.713783333333" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="2">
   <cacheSource type="worksheet">
     <worksheetSource name="MyData"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="nuevagerencia" numFmtId="0">
-      <sharedItems count="2">
-        <s v="area1"/>
-        <s v="area12"/>
+      <sharedItems count="5">
+        <s v="asdf"/>
+        <s v="jhg" u="1"/>
+        <s v="uihuiy" u="1"/>
+        <s v="fghfg" u="1"/>
+        <s v="uiyhuiyhuio" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="nuevodepartamento" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="2">
+        <s v="asdfs"/>
+        <s v="fghfghfg" u="1"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="nombrecuenta" numFmtId="0">
       <sharedItems/>
@@ -1099,13 +1073,12 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="tipo" numFmtId="0">
-      <sharedItems count="2">
-        <s v="dsfds"/>
-        <s v="dsfa"/>
+      <sharedItems count="1">
+        <s v="asdf"/>
       </sharedItems>
     </cacheField>
     <cacheField name="monto" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5543" maxValue="123213"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="345" maxValue="346"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1120,39 +1093,46 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="2">
   <r>
     <x v="0"/>
-    <s v="areadd"/>
-    <s v="asdas"/>
-    <s v="fds"/>
     <x v="0"/>
-    <n v="123213"/>
+    <s v="asdf"/>
+    <s v="asdf"/>
+    <x v="0"/>
+    <n v="345"/>
   </r>
   <r>
-    <x v="1"/>
-    <s v="asf"/>
-    <s v="asdfsd"/>
-    <s v="sdfa"/>
-    <x v="1"/>
-    <n v="5543"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="asdf"/>
+    <s v="asdf"/>
+    <x v="0"/>
+    <n v="346"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A1:D5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:C6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item m="1" x="2"/>
+        <item m="1" x="4"/>
+        <item m="1" x="1"/>
+        <item m="1" x="3"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0">
       <items count="2">
+        <item m="1" x="1"/>
         <item x="0"/>
-        <item x="1"/>
       </items>
     </pivotField>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="1"/>
+      <items count="1">
         <item x="0"/>
       </items>
     </pivotField>
@@ -1161,12 +1141,9 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="2">
     <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
+      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -1175,12 +1152,9 @@
   <colFields count="1">
     <field x="4"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="2">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -1472,78 +1446,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A3:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1">
-        <v>123213</v>
-      </c>
-      <c r="D3" s="1">
-        <v>123213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>5543</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1">
-        <v>5543</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>5543</v>
+        <v>691</v>
       </c>
       <c r="C5" s="1">
-        <v>123213</v>
-      </c>
-      <c r="D5" s="1">
-        <v>128756</v>
+        <v>691</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>691</v>
+      </c>
+      <c r="C6" s="1">
+        <v>691</v>
       </c>
     </row>
   </sheetData>
@@ -1557,29 +1511,33 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
